--- a/data/input/absenteeism_data_30.xlsx
+++ b/data/input/absenteeism_data_30.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9546</v>
+        <v>49638</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benjamin Moreira</t>
+          <t>Sra. Júlia da Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>3700.5</v>
+        <v>11476.71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36623</v>
+        <v>41594</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clarice Farias</t>
+          <t>Srta. Heloísa Nascimento</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45081</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>7880.19</v>
+        <v>10107.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3438</v>
+        <v>73189</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bianca Santos</t>
+          <t>Stephany Duarte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45105</v>
       </c>
       <c r="G4" t="n">
-        <v>11505.39</v>
+        <v>6941.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19849</v>
+        <v>879</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kaique da Costa</t>
+          <t>Fernando Nogueira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>12024.58</v>
+        <v>5893.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>57484</v>
+        <v>41172</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bárbara Fogaça</t>
+          <t>Helena Pires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>8805.030000000001</v>
+        <v>4505.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64135</v>
+        <v>74310</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Yuri Aragão</t>
+          <t>Stella Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>2784.46</v>
+        <v>9814.940000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74591</v>
+        <v>735</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Igor Cavalcanti</t>
+          <t>Guilherme Jesus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>7579.25</v>
+        <v>7620.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>95588</v>
+        <v>51789</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Theo Carvalho</t>
+          <t>Júlia Ribeiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45083</v>
       </c>
       <c r="G9" t="n">
-        <v>5780.79</v>
+        <v>10621.78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84657</v>
+        <v>19705</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Augusto da Rosa</t>
+          <t>Ana Clara da Rosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>9580.459999999999</v>
+        <v>5546.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>87006</v>
+        <v>35991</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Olivia Rocha</t>
+          <t>Sra. Mariane Freitas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>5860</v>
+        <v>3070.78</v>
       </c>
     </row>
   </sheetData>
